--- a/data_year/zb/教育/成人本科分学科学生数/成人本科分学科招生数.xlsx
+++ b/data_year/zb/教育/成人本科分学科学生数/成人本科分学科招生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,779 +588,437 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.9434</v>
+        <v>85.3319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0042</v>
+        <v>0.0065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1884</v>
+        <v>0.1654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1102</v>
+        <v>0.0052</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1182</v>
+        <v>0.1644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2512</v>
+        <v>0.0896</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9654</v>
+        <v>1.0259</v>
       </c>
       <c r="I2" t="n">
-        <v>6.1985</v>
+        <v>2.058</v>
       </c>
       <c r="J2" t="n">
-        <v>0.86</v>
+        <v>0.5068</v>
       </c>
       <c r="K2" t="n">
-        <v>2.7129</v>
+        <v>0.6573</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6508</v>
+        <v>0.2028</v>
       </c>
       <c r="M2" t="n">
-        <v>1.072</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2731</v>
+        <v>0.274</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0757</v>
+        <v>0.0542</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3422</v>
+        <v>0.0532</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.0311</v>
+        <v>1.285</v>
       </c>
       <c r="R2" t="n">
-        <v>7.0408</v>
+        <v>14.995</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5047</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>0.222</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0097</v>
+      </c>
       <c r="U2" t="n">
-        <v>5.9771</v>
+        <v>3.4768</v>
       </c>
       <c r="V2" t="n">
-        <v>12.336</v>
+        <v>19.1388</v>
       </c>
       <c r="W2" t="n">
-        <v>19.4463</v>
+        <v>13.2672</v>
       </c>
       <c r="X2" t="n">
-        <v>69.7449</v>
+        <v>83.2739</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.7376</v>
+        <v>4.189</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.1867</v>
+        <v>12.8618</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.8101</v>
+        <v>4.8799</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.9184</v>
+        <v>2.7032</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.9062</v>
+        <v>19.9522</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.2733</v>
+        <v>3.0373</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.5202</v>
+        <v>1.8917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.7196</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0026</v>
-      </c>
+        <v>89.72410000000001</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.2159</v>
+        <v>0.2842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0746</v>
+        <v>0.0046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8885</v>
+        <v>0.1367</v>
       </c>
       <c r="G3" t="n">
-        <v>0.209</v>
+        <v>0.066</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9712</v>
+        <v>0.6519</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2679</v>
+        <v>1.9286</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8871</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3131</v>
+        <v>0.4386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3469</v>
+        <v>0.233</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8564000000000001</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3076</v>
+        <v>0.2579</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0547</v>
+        <v>0.0615</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2284</v>
+        <v>0.0433</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>7.7226</v>
+        <v>16.61</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3725</v>
+        <v>0.1635</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0026</v>
+        <v>0.002</v>
       </c>
       <c r="U3" t="n">
-        <v>5.513</v>
+        <v>2.9079</v>
       </c>
       <c r="V3" t="n">
-        <v>12.4432</v>
+        <v>21.4648</v>
       </c>
       <c r="W3" t="n">
-        <v>16.298</v>
+        <v>10.8577</v>
       </c>
       <c r="X3" t="n">
-        <v>69.4517</v>
+        <v>87.7955</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2356</v>
+        <v>4.2945</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.8657</v>
+        <v>11.3802</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.2824</v>
+        <v>4.7709</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.2267</v>
+        <v>2.3655</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.4845</v>
+        <v>22.4472</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.7459</v>
+        <v>2.8669</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.0401</v>
+        <v>1.7883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.7677</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1528</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0731</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6365</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.6015</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.9306</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1654</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.1812</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.9979</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.3498</v>
-      </c>
+        <v>98.4817</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>5.3745</v>
-      </c>
-      <c r="V4" t="n">
-        <v>13.9963</v>
-      </c>
-      <c r="W4" t="n">
-        <v>17.4177</v>
-      </c>
-      <c r="X4" t="n">
-        <v>72.83710000000001</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.4094</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15.8688</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>6.2957</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.3225</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>14.6038</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.8117</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2.6978</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.08580000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1549</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1316</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.7522</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.9015</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9137</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.6634</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3274</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.2921</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1216</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.3538</v>
-      </c>
-      <c r="R5" t="n">
-        <v>10.8691</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.3025</v>
-      </c>
+        <v>103.8158</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>5.4065</v>
-      </c>
-      <c r="V5" t="n">
-        <v>16.0534</v>
-      </c>
-      <c r="W5" t="n">
-        <v>16.7605</v>
-      </c>
-      <c r="X5" t="n">
-        <v>78.18429999999999</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.465</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16.0824</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>5.9465</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>3.9212</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16.5219</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.6685</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.5256</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.1362</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1275</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1183</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.3633</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.4291</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8565</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.411</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2946</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2231</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2697</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0864</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.3888</v>
-      </c>
-      <c r="R6" t="n">
-        <v>11.433</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2755</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4.8327</v>
-      </c>
-      <c r="V6" t="n">
-        <v>16.9992</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15.6493</v>
-      </c>
-      <c r="X6" t="n">
-        <v>79.7071</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.4931</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15.9699</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5.3093</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>3.427</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17.4846</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.9243</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.2434</v>
-      </c>
+        <v>110.2409</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.5795</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1102</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2813</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1165</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.5412</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9369</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2063</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1653</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3408</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0732</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0615</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.0357</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13.5317</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.2367</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.9228</v>
-      </c>
-      <c r="V7" t="n">
-        <v>17.3121</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.7137</v>
-      </c>
-      <c r="X7" t="n">
-        <v>79.03830000000001</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13.6754</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.6113</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>18.6742</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.9586</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.9557</v>
-      </c>
+        <v>101.4675</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.3319</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1654</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1644</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.0259</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.058</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5068</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6573</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2028</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.09619999999999999</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0542</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="R8" t="n">
-        <v>14.995</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.4768</v>
-      </c>
-      <c r="V8" t="n">
-        <v>19.1388</v>
-      </c>
-      <c r="W8" t="n">
-        <v>13.2672</v>
-      </c>
-      <c r="X8" t="n">
-        <v>83.2739</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4.189</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>12.8618</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4.8799</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2.7032</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>19.9522</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.0373</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.8917</v>
-      </c>
+        <v>96.9387</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.72410000000001</v>
+        <v>102.3981</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>0.2842</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6519</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.9286</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.4386</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.06419999999999999</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.2579</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0615</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0433</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R9" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.1635</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.9079</v>
-      </c>
-      <c r="V9" t="n">
-        <v>21.4648</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10.8577</v>
-      </c>
-      <c r="X9" t="n">
-        <v>87.7955</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.2945</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11.3802</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>4.7709</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.3655</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>22.4472</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.8669</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.7883</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.4817</v>
+        <v>140.038</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1395,11 +1053,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.8158</v>
+        <v>150.552</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1434,11 +1092,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.2409</v>
+        <v>189.6292</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1473,11 +1131,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.4675</v>
+        <v>204.2982</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1509,201 +1167,6 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>96.9387</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>102.3981</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>140.038</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>150.552</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>189.6292</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
